--- a/excel_input_files/Test_input_Condition2Neg.xlsx
+++ b/excel_input_files/Test_input_Condition2Neg.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\Glasgow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/git/lipid_prototype/excel_input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD2A73B-6420-45E7-8003-FDE43B7934BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED96BE46-E608-1E4F-9EF9-5CB224BCE4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59EBD085-9D3B-4EB6-B56D-6019178B6EC5}"/>
+    <workbookView xWindow="5000" yWindow="1620" windowWidth="25340" windowHeight="14620" xr2:uid="{59EBD085-9D3B-4EB6-B56D-6019178B6EC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="lipids" sheetId="3" r:id="rId1"/>
+    <sheet name="files" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>C43H76NO8P</t>
-  </si>
-  <si>
-    <t>Theoretical mass</t>
   </si>
 </sst>
 </file>
@@ -706,21 +703,21 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J41"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,11 +742,9 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -772,11 +767,8 @@
         <v>20</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="J2">
-        <v>759.57835399999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,11 +791,8 @@
         <v>20</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="J3">
-        <v>757.56270400000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -826,11 +815,8 @@
         <v>20</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="J4">
-        <v>759.57835399999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -853,12 +839,9 @@
         <v>20</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="J5">
-        <v>785.59400400000004</v>
-      </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
@@ -881,12 +864,9 @@
         <v>20</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="J6">
-        <v>761.59400400000004</v>
-      </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
@@ -909,13 +889,10 @@
         <v>20</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="J7">
-        <v>757.56270400000005</v>
-      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -938,12 +915,9 @@
         <v>20</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="J8">
-        <v>787.60965399999998</v>
-      </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
@@ -966,12 +940,9 @@
         <v>20</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="J9">
-        <v>771.61473899999999</v>
-      </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -994,12 +965,9 @@
         <v>20</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="J10">
-        <v>764.69293000000005</v>
-      </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -1022,12 +990,9 @@
         <v>20</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="J11">
-        <v>761.59400400000004</v>
-      </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1050,12 +1015,9 @@
         <v>20</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="J12">
-        <v>783.57835399999999</v>
-      </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
@@ -1078,12 +1040,9 @@
         <v>20</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="J13">
-        <v>773.59400400000004</v>
-      </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -1106,12 +1065,9 @@
         <v>20</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="J14">
-        <v>813.62530400000003</v>
-      </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
@@ -1134,12 +1090,9 @@
         <v>20</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="J15">
-        <v>789.62530400000003</v>
-      </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
@@ -1162,12 +1115,9 @@
         <v>20</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="J16">
-        <v>719.547054</v>
-      </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
@@ -1190,12 +1140,9 @@
         <v>20</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="J17">
-        <v>731.547054</v>
-      </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
@@ -1218,12 +1165,9 @@
         <v>20</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="J18">
-        <v>731.583439</v>
-      </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -1246,12 +1190,9 @@
         <v>20</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="J19">
-        <v>729.53140299999995</v>
-      </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -1274,12 +1215,9 @@
         <v>20</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="J20">
-        <v>743.547054</v>
-      </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1302,12 +1240,9 @@
         <v>10</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="J21">
-        <v>809.59400400000004</v>
-      </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1330,12 +1265,9 @@
         <v>10</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="J22">
-        <v>833.59400400000004</v>
-      </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
@@ -1358,12 +1290,9 @@
         <v>10</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="J23">
-        <v>733.56270400000005</v>
-      </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -1386,12 +1315,9 @@
         <v>10</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="J24">
-        <v>549.37998800000003</v>
-      </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -1414,12 +1340,9 @@
         <v>10</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="J25">
-        <v>479.301738</v>
-      </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
@@ -1442,12 +1365,9 @@
         <v>10</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="J26">
-        <v>501.28608800000001</v>
-      </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
@@ -1470,12 +1390,9 @@
         <v>10</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="J27">
-        <v>815.64095399999997</v>
-      </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
@@ -1498,12 +1415,9 @@
         <v>10</v>
       </c>
       <c r="H28" s="3"/>
-      <c r="J28">
-        <v>813.62530400000003</v>
-      </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
@@ -1526,12 +1440,9 @@
         <v>10</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="J29">
-        <v>833.59400400000004</v>
-      </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
@@ -1554,12 +1465,9 @@
         <v>10</v>
       </c>
       <c r="H30" s="3"/>
-      <c r="J30">
-        <v>793.59908900000005</v>
-      </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>62</v>
       </c>
@@ -1582,12 +1490,9 @@
         <v>10</v>
       </c>
       <c r="H31" s="3"/>
-      <c r="J31">
-        <v>304.24077899999997</v>
-      </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -1610,11 +1515,8 @@
         <v>10</v>
       </c>
       <c r="H32" s="3"/>
-      <c r="J32">
-        <v>304.24077899999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -1637,11 +1539,8 @@
         <v>10</v>
       </c>
       <c r="H33" s="3"/>
-      <c r="J33">
-        <v>479.301738</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -1664,11 +1563,8 @@
         <v>10</v>
       </c>
       <c r="H34" s="3"/>
-      <c r="J34">
-        <v>501.28608800000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>70</v>
       </c>
@@ -1690,11 +1586,8 @@
       <c r="G35">
         <v>10</v>
       </c>
-      <c r="J35">
-        <v>723.52083900000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>66</v>
       </c>
@@ -1716,11 +1609,8 @@
       <c r="G36">
         <v>10</v>
       </c>
-      <c r="J36">
-        <v>739.51575300000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>67</v>
       </c>
@@ -1742,11 +1632,8 @@
       <c r="G37">
         <v>10</v>
       </c>
-      <c r="J37">
-        <v>751.55213900000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>68</v>
       </c>
@@ -1768,11 +1655,8 @@
       <c r="G38">
         <v>10</v>
       </c>
-      <c r="J38">
-        <v>765.53140299999995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>84</v>
       </c>
@@ -1794,11 +1678,8 @@
       <c r="G39">
         <v>10</v>
       </c>
-      <c r="J39">
-        <v>783.541968</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1823,12 +1704,12 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1836,7 +1717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1844,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1852,7 +1733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1860,7 +1741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1868,7 +1749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1876,7 +1757,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1884,7 +1765,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>83</v>
       </c>

--- a/excel_input_files/Test_input_Condition2Neg.xlsx
+++ b/excel_input_files/Test_input_Condition2Neg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/git/lipid_prototype/excel_input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED96BE46-E608-1E4F-9EF9-5CB224BCE4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3A9D9E-2357-D24F-A752-33000F561F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="1620" windowWidth="25340" windowHeight="14620" xr2:uid="{59EBD085-9D3B-4EB6-B56D-6019178B6EC5}"/>
+    <workbookView xWindow="3460" yWindow="1620" windowWidth="25340" windowHeight="14620" activeTab="1" xr2:uid="{59EBD085-9D3B-4EB6-B56D-6019178B6EC5}"/>
   </bookViews>
   <sheets>
     <sheet name="lipids" sheetId="3" r:id="rId1"/>
@@ -265,31 +265,31 @@
     <t>[M-H+FA]-</t>
   </si>
   <si>
-    <t>0_pp_d20_neg_2</t>
-  </si>
-  <si>
-    <t>8_pp_d20_neg_2</t>
-  </si>
-  <si>
-    <t>24_pp_d20_neg_2</t>
-  </si>
-  <si>
-    <t>48_pp_d20_neg_2</t>
-  </si>
-  <si>
-    <t>72_pp_d20_neg_2</t>
-  </si>
-  <si>
-    <t>96_pp_d20_neg_2</t>
-  </si>
-  <si>
-    <t>120_pp_d20_neg_2</t>
-  </si>
-  <si>
     <t>PE(38:4p(12OH[S]))</t>
   </si>
   <si>
     <t>C43H76NO8P</t>
+  </si>
+  <si>
+    <t>0_d20_neg_2</t>
+  </si>
+  <si>
+    <t>8_d20_neg_2</t>
+  </si>
+  <si>
+    <t>24_d20_neg_2</t>
+  </si>
+  <si>
+    <t>48_d20_neg_2</t>
+  </si>
+  <si>
+    <t>72_d20_neg_2</t>
+  </si>
+  <si>
+    <t>96_d20_neg_2</t>
+  </si>
+  <si>
+    <t>120_d20_neg_2</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D248679-4876-F949-8D23-26F678A03F89}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1638,7 +1638,7 @@
         <v>68</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>75</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>74</v>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D3203F-BC1B-7745-B9F8-C5C7D6E73FC7}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>48</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>72</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>96</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>120</v>
